--- a/trunk/documentation/0 architecture/design/TO-BE 시스템 SW 기술 구조 (구성요소 설명) (JSP).xlsx
+++ b/trunk/documentation/0 architecture/design/TO-BE 시스템 SW 기술 구조 (구성요소 설명) (JSP).xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="725" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="581" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="상세 구성요소" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="60">
   <si>
     <t>레이어</t>
   </si>
@@ -29,9 +29,6 @@
     <t>설명</t>
   </si>
   <si>
-    <t>비고</t>
-  </si>
-  <si>
     <t>Presentation</t>
   </si>
   <si>
@@ -119,12 +116,18 @@
     <t>파일 업로드에 사용</t>
   </si>
   <si>
+    <t>비즈니스 로직이 없는 경우 생략 가능</t>
+  </si>
+  <si>
     <t>View Resolver</t>
   </si>
   <si>
     <t>Controller 실행 후, 표시 화면 결정 시 사용</t>
   </si>
   <si>
+    <t>데이터 입출력이 없는 경우 생략 가능</t>
+  </si>
+  <si>
     <t>Application</t>
   </si>
   <si>
@@ -134,7 +137,7 @@
     <t>비즈니스 로직을 수행하고 데이터 입출력이 필요할 경우, Manager에 위임하는데 사용</t>
   </si>
   <si>
-    <t>비즈니스 로직이 없는 경우 생략 가능</t>
+    <t>데이터 입출력을 Database로 하지 않는 경우 생략 가능</t>
   </si>
   <si>
     <t>Domain</t>
@@ -146,9 +149,6 @@
     <t>도메인 객체(비즈니스 객체)의 관리를 수행하고 실제 데이터 처리의 구현은 DAO나 Adaptor로 위임하는데 사용</t>
   </si>
   <si>
-    <t>데이터 입출력이 없는 경우 생략 가능</t>
-  </si>
-  <si>
     <t>Persistence</t>
   </si>
   <si>
@@ -156,9 +156,6 @@
   </si>
   <si>
     <t>주로 Database와의 데이터 입출력 구현에  사용</t>
-  </si>
-  <si>
-    <t>데이터 입출력을 Database로 하지 않는 경우 생략 가능</t>
   </si>
   <si>
     <t>Infrastructure</t>
@@ -306,7 +303,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -325,10 +322,6 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -423,7 +416,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
+      <selection pane="topLeft" activeCell="B34" activeCellId="0" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -449,311 +442,307 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>7</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>8</v>
       </c>
       <c r="E2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5"/>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>9</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>10</v>
       </c>
       <c r="E3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5"/>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="E4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5"/>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="E5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5"/>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>15</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>16</v>
       </c>
       <c r="E6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5"/>
-      <c r="B7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="6" t="s">
+      <c r="B7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>18</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="E7" s="4"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5"/>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="E8" s="4"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5"/>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="E9" s="4"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5"/>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>25</v>
       </c>
       <c r="E10" s="4"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5"/>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="E11" s="4"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5"/>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="E12" s="4"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5"/>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="E13" s="4"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5"/>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="7" t="s">
+      <c r="E14" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="4"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5"/>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="7" t="s">
+      <c r="C15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="4"/>
+      <c r="E15" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="7" t="s">
+      <c r="B16" s="5" t="s">
         <v>38</v>
       </c>
+      <c r="C16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="E16" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="7" t="s">
+      <c r="B17" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="C17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>43</v>
       </c>
+      <c r="E17" s="4"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="7" t="s">
+      <c r="C18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="7" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="8" t="s">
+      <c r="B19" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="D19" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="7"/>
+      <c r="B20" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E19" s="4"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="8"/>
-      <c r="B20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="D20" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="7"/>
+      <c r="B21" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E20" s="4"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="8"/>
-      <c r="B21" s="6" t="s">
+      <c r="C21" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" s="7" t="s">
+      <c r="E21" s="4"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="7"/>
+      <c r="B22" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E21" s="4"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="8"/>
-      <c r="B22" s="6" t="s">
+      <c r="C22" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" s="7" t="s">
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="7"/>
+      <c r="B23" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E22" s="4"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="8"/>
-      <c r="B23" s="6" t="s">
+      <c r="C23" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E23" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
